--- a/PCB/V2/Prototype 1/BOM Digikey.xlsx
+++ b/PCB/V2/Prototype 1/BOM Digikey.xlsx
@@ -621,6 +621,46 @@
         <v>0.60</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>10</v>
+      </c>
+      <c r="B11" s="65">
+        <v>6</v>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t>AE9988-ND</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D11">
+        <is>
+          <t>A 08-LC-TR</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t>CONN IC DIP SOCKET 8POS TIN</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t>Op Amp Socket</t>
+        </is>
+      </c>
+      <c r="G11" s="65">
+        <v>6</v>
+      </c>
+      <c r="H11" s="65">
+        <v>0</v>
+      </c>
+      <c t="n" r="I11">
+        <v>0.20000</v>
+      </c>
+      <c r="J11" s="66">
+        <v>1.20</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>